--- a/Result/VAR/Service/AUS.xlsx
+++ b/Result/VAR/Service/AUS.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,253 +460,263 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.103857764477254</v>
+        <v>61.43048008274011</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02130058980822014</v>
+        <v>61.78157261392445</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7000132375689248</v>
+        <v>62.19834379772002</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.05875470231693214</v>
+        <v>62.63976656818687</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1420304357970892</v>
+        <v>62.92423120383471</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9057509539553195</v>
+        <v>63.06875156727907</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.7862983272310444</v>
+        <v>63.25185562200105</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5840949996172498</v>
+        <v>63.54078961863272</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7313104728779649</v>
+        <v>63.72286240574709</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2271781847039307</v>
+        <v>63.92143206163952</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>0.006643774899238508</v>
+        <v>64.09951070100728</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5287195010239287</v>
+        <v>63.99906582262692</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3535782488092778</v>
+        <v>64.08261901273161</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1042022776604199</v>
+        <v>64.60517168785685</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.734181601987693</v>
+        <v>64.55096774851449</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>1.26315942522892</v>
+        <v>64.18026736846923</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.4657338574715126</v>
+        <v>64.29180032272009</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.5358081723926631</v>
+        <v>64.53953370835438</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>2.012688931111555</v>
+        <v>64.3277694120067</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.684391405172718</v>
+        <v>64.59289732081527</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B22" t="n">
-        <v>1.599774215328253</v>
+        <v>64.69323366409317</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>0.552595256555918</v>
+        <v>65.29724755797528</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.652679282188103</v>
+        <v>66.19284351606511</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>2.108337352485464</v>
+        <v>66.63967955069324</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.5532446055077997</v>
+        <v>67.00636838519286</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B27" t="n">
+        <v>67.87289279891756</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -754,7 +764,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9981579070587751</v>
+        <v>69.66185396507895</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -764,7 +774,7 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>1.444919851771951</v>
+        <v>71.33462352133481</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -774,7 +784,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.039390711328075</v>
+        <v>73.25006698724667</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -784,7 +794,7 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1851990074188337</v>
+        <v>75.71730684921548</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -794,7 +804,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4369951443044247</v>
+        <v>78.80762897570685</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -810,7 +820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,323 +852,313 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>59.50010999359813</v>
+        <v>61.0856468906162</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>61.24874468069734</v>
+        <v>61.89954979427429</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>61.8935216033193</v>
+        <v>62.42014308655836</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>62.55959911574948</v>
+        <v>62.9022968424083</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>62.52566339061073</v>
+        <v>63.00133272773329</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>62.43297296315505</v>
+        <v>63.22672064413919</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>62.48231297149646</v>
+        <v>62.9198800439135</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>63.43740393379319</v>
+        <v>63.49757689768331</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>63.60619656885888</v>
+        <v>63.83299998445116</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>64.35908420354181</v>
+        <v>64.29730162145609</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>64.38066136534678</v>
+        <v>64.38847888834567</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>64.17506034244782</v>
+        <v>64.04653692164901</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>63.9761030944481</v>
+        <v>64.18347929467224</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B15" t="n">
-        <v>64.30586534747231</v>
+        <v>64.2486166982343</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B16" t="n">
-        <v>64.28204935168723</v>
+        <v>64.95937864210968</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>64.36243563356258</v>
+        <v>64.21436323880738</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>63.70864031345024</v>
+        <v>64.29496908652393</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>64.31800441856682</v>
+        <v>65.01712382616167</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>64.46163466621188</v>
+        <v>64.9637891040161</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>64.06945674146428</v>
+        <v>64.43784233847023</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B22" t="n">
-        <v>65.68996774782823</v>
+        <v>65.2118970856898</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>64.62608734901947</v>
+        <v>64.4123616933975</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>65.16198116553896</v>
+        <v>65.66047326822748</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>66.25047023861437</v>
+        <v>66.06958099384612</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>65.68628002950167</v>
+        <v>65.85075027324396</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B27" t="n">
-        <v>67.23042717287444</v>
+        <v>67.28037443138376</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B28" t="n">
-        <v>68.22132971073941</v>
+        <v>67.59463799184418</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B29" t="n">
-        <v>67.01452952684967</v>
+        <v>66.8698106703667</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B30" t="n">
-        <v>66.65724334842149</v>
+        <v>66.77268622663917</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B31" t="n">
-        <v>66.06471595311547</v>
+        <v>65.76554142229169</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B32" t="n">
-        <v>66.28080849487043</v>
+        <v>65.85691964904467</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B33" t="n">
-        <v>65.71380883498387</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1206,7 +1206,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9138385881132026</v>
+        <v>64.61813990753957</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>1.567793178113548</v>
+        <v>63.88571096701131</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1226,7 +1226,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.179720995059369</v>
+        <v>63.24741749443844</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1236,7 +1236,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2703101475543868</v>
+        <v>62.60519417815841</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1246,7 +1246,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4400299797517909</v>
+        <v>61.94577354948412</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
